--- a/Data_preparation/datasets/final_data/KLA_Corporation.xlsx
+++ b/Data_preparation/datasets/final_data/KLA_Corporation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>11.40454674014372</v>
+        <v>47.6076611892813</v>
       </c>
       <c r="E2">
-        <v>11.25329399108887</v>
+        <v>48.04067993164063</v>
       </c>
       <c r="F2">
-        <v>11.646553599544</v>
+        <v>49.67471668521125</v>
       </c>
       <c r="G2">
-        <v>10.79953140113752</v>
+        <v>46.65174806777005</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>131684530</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>9481738770</v>
@@ -843,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>19705.44771228903</v>
+        <v>46.73817855850264</v>
       </c>
       <c r="E3">
-        <v>18415.580078125</v>
+        <v>43.71403884887695</v>
       </c>
       <c r="F3">
-        <v>20373.69239022943</v>
+        <v>47.25730626456601</v>
       </c>
       <c r="G3">
-        <v>18260.1743390691</v>
+        <v>41.54687635090163</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>131684530</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>8989162502</v>
@@ -971,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>754.2077893284245</v>
+        <v>41.5902275540501</v>
       </c>
       <c r="E4">
-        <v>754.7066040039062</v>
+        <v>55.85306549072266</v>
       </c>
       <c r="F4">
-        <v>768.1746002419138</v>
+        <v>55.97788102380869</v>
       </c>
       <c r="G4">
-        <v>727.601031587557</v>
+        <v>40.55005578696896</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>131684530</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>7874968591</v>
@@ -1099,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>27.125</v>
+        <v>57.05376734946462</v>
       </c>
       <c r="E5">
-        <v>25.34499931335449</v>
+        <v>56.18156433105469</v>
       </c>
       <c r="F5">
-        <v>27.125</v>
+        <v>58.01822304087045</v>
       </c>
       <c r="G5">
-        <v>22.22999954223633</v>
+        <v>53.37206797660625</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>131684530</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>10814833879</v>
@@ -1227,22 +1164,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>11.19978539931328</v>
+        <v>61.50252271170246</v>
       </c>
       <c r="E6">
-        <v>11.3136043548584</v>
+        <v>59.13509368896485</v>
       </c>
       <c r="F6">
-        <v>11.83261851426581</v>
+        <v>62.22120640698455</v>
       </c>
       <c r="G6">
-        <v>10.98580520713185</v>
+        <v>58.79688769979013</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>131684530</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>11333942438</v>
@@ -1355,22 +1292,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>17.48999977111816</v>
+        <v>62.18629871170955</v>
       </c>
       <c r="E7">
-        <v>18.72999954223633</v>
+        <v>64.49485778808594</v>
       </c>
       <c r="F7">
-        <v>18.8700008392334</v>
+        <v>66.31785287421681</v>
       </c>
       <c r="G7">
-        <v>16.79999923706055</v>
+        <v>60.91701854409063</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>131684530</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>11405639494</v>
@@ -1483,22 +1420,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>8.69158867261447</v>
+        <v>60.03751190356994</v>
       </c>
       <c r="E8">
-        <v>9.01453971862793</v>
+        <v>64.46630096435547</v>
       </c>
       <c r="F8">
-        <v>9.435779708844802</v>
+        <v>64.80103425985122</v>
       </c>
       <c r="G8">
-        <v>8.331194091753382</v>
+        <v>59.86585615396851</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>131684530</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>10874411659</v>
@@ -1611,22 +1548,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>68.26765047208704</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>73.57553100585938</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>76.03928555403928</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>67.30808186983384</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>131684530</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>12299157834</v>
@@ -1739,22 +1676,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>9.769573715804048</v>
+        <v>82.93604322982907</v>
       </c>
       <c r="E10">
-        <v>9.667807579040527</v>
+        <v>85.44135284423828</v>
       </c>
       <c r="F10">
-        <v>9.973106636344406</v>
+        <v>90.6607390252005</v>
       </c>
       <c r="G10">
-        <v>9.396430782995594</v>
+        <v>81.43112393092223</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>131684530</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>14900256452</v>
@@ -1867,22 +1804,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>804.4902529480636</v>
+        <v>80.724171352855</v>
       </c>
       <c r="E11">
-        <v>793.3997192382812</v>
+        <v>81.01277923583984</v>
       </c>
       <c r="F11">
-        <v>875.2990450951361</v>
+        <v>88.98899418830051</v>
       </c>
       <c r="G11">
-        <v>749.0375843991515</v>
+        <v>79.31608943680845</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>131684530</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>14345347631</v>
@@ -1995,22 +1932,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>16.30785379979687</v>
+        <v>92.92568869807278</v>
       </c>
       <c r="E12">
-        <v>16.63021850585938</v>
+        <v>95.8752899169922</v>
       </c>
       <c r="F12">
-        <v>17.91335631168335</v>
+        <v>96.65891513498076</v>
       </c>
       <c r="G12">
-        <v>16.30785379979687</v>
+        <v>88.96353600228096</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>131684530</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>16625084520</v>
@@ -2123,22 +2060,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>93.66154412736256</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>97.23938751220705</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>107.7338006416944</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>92.731656597298</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>131684530</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>16465299368</v>
@@ -2239,22 +2176,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>15.95295863791121</v>
+        <v>96.46596817036529</v>
       </c>
       <c r="E14">
-        <v>14.81924629211426</v>
+        <v>90.61441802978516</v>
       </c>
       <c r="F14">
-        <v>16.27687689615273</v>
+        <v>99.39619742668154</v>
       </c>
       <c r="G14">
-        <v>13.44259525263616</v>
+        <v>87.22996372525134</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>131684530</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>17073159826</v>
@@ -2367,22 +2304,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>32.36709687656226</v>
+        <v>90.81799183270624</v>
       </c>
       <c r="E15">
-        <v>31.62302398681641</v>
+        <v>105.2907638549805</v>
       </c>
       <c r="F15">
-        <v>33.33438902755955</v>
+        <v>109.7563435315997</v>
       </c>
       <c r="G15">
-        <v>30.02327147189045</v>
+        <v>89.99302750410813</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>131684530</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>15981564670</v>
@@ -2495,22 +2432,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>92.47323426782334</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>82.61760711669922</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>92.93352655205273</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>76.34501871914924</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>131684530</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>15879627129</v>
@@ -2623,22 +2560,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>178.7038649689565</v>
+        <v>79.64548032681731</v>
       </c>
       <c r="E17">
-        <v>142.8035278320312</v>
+        <v>96.97039794921876</v>
       </c>
       <c r="F17">
-        <v>181.4961066283612</v>
+        <v>98.86303758391956</v>
       </c>
       <c r="G17">
-        <v>142.8035278320312</v>
+        <v>77.97122699453523</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>131684530</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>13698709492</v>
@@ -2739,22 +2676,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>109.8451033268113</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>116.8089294433594</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>117.4778258064597</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>109.4144518771695</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>131684530</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>18074373807</v>
@@ -2867,22 +2804,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>112.4157843135597</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>125.7757797241211</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>131.625383157238</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>106.9352426549819</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>131684530</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>19103514968</v>
@@ -2995,22 +2932,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>60.76406463044493</v>
+        <v>149.1804100558455</v>
       </c>
       <c r="E20">
-        <v>59.60836791992188</v>
+        <v>156.8347320556641</v>
       </c>
       <c r="F20">
-        <v>61.14327406172586</v>
+        <v>162.661307766075</v>
       </c>
       <c r="G20">
-        <v>56.1412984537168</v>
+        <v>142.5373971159691</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>131684530</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>25393361228</v>
@@ -3123,22 +3060,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>222.8461507933775</v>
+        <v>168.5383324354263</v>
       </c>
       <c r="E21">
-        <v>219.044937133789</v>
+        <v>154.5167846679688</v>
       </c>
       <c r="F21">
-        <v>252.7807083626373</v>
+        <v>172.0064307130487</v>
       </c>
       <c r="G21">
-        <v>203.3649307879864</v>
+        <v>154.0599602998986</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>131684530</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>28114245174</v>
@@ -3251,22 +3188,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>12.41129859768217</v>
+        <v>129.9463105284273</v>
       </c>
       <c r="E22">
-        <v>16.23237037658691</v>
+        <v>153.73388671875</v>
       </c>
       <c r="F22">
-        <v>17.16704825563687</v>
+        <v>165.9883785503893</v>
       </c>
       <c r="G22">
-        <v>12.05887897968325</v>
+        <v>117.6356077266978</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>131684530</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>22534435741</v>
@@ -3379,22 +3316,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>970.3393129824782</v>
+        <v>183.0863794829859</v>
       </c>
       <c r="E23">
-        <v>1088.628295898438</v>
+        <v>188.1229553222656</v>
       </c>
       <c r="F23">
-        <v>1118.200541627427</v>
+        <v>197.0381562441488</v>
       </c>
       <c r="G23">
-        <v>950.0083940437976</v>
+        <v>176.1763970454838</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>131684530</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>30153908905</v>
@@ -3507,22 +3444,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>12.7733873356874</v>
+        <v>186.8433763808394</v>
       </c>
       <c r="E24">
-        <v>15.52035236358643</v>
+        <v>186.4273681640625</v>
       </c>
       <c r="F24">
-        <v>17.30587870681586</v>
+        <v>211.3499045325026</v>
       </c>
       <c r="G24">
-        <v>12.68182262753309</v>
+        <v>179.8374696587072</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>131684530</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>30119100161</v>
@@ -3635,22 +3572,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>32.50755730601569</v>
+        <v>248.7288907077134</v>
       </c>
       <c r="E25">
-        <v>31.25653076171875</v>
+        <v>265.8227233886719</v>
       </c>
       <c r="F25">
-        <v>32.99459606093095</v>
+        <v>301.4435546929582</v>
       </c>
       <c r="G25">
-        <v>30.77904021483708</v>
+        <v>244.5906997205386</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>131684530</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>39991191219</v>
@@ -3763,22 +3700,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2516.34996159507</v>
+        <v>320.730651676812</v>
       </c>
       <c r="E26">
-        <v>2790.17041015625</v>
+        <v>300.1258544921875</v>
       </c>
       <c r="F26">
-        <v>2807.159270103477</v>
+        <v>342.3252489159237</v>
       </c>
       <c r="G26">
-        <v>2503.838146397838</v>
+        <v>297.8131745679347</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>131684530</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>50906264690</v>
@@ -3891,22 +3828,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>40.06459571156605</v>
+        <v>309.4395002674777</v>
       </c>
       <c r="E27">
-        <v>40.04537963867188</v>
+        <v>332.3598937988281</v>
       </c>
       <c r="F27">
-        <v>40.5353766696543</v>
+        <v>340.5218681926767</v>
       </c>
       <c r="G27">
-        <v>36.25990124070713</v>
+        <v>274.3954724267418</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>131684530</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>49695486866</v>
@@ -4019,22 +3956,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>51.72000122070312</v>
+        <v>322.469731570365</v>
       </c>
       <c r="E28">
-        <v>45.22999954223633</v>
+        <v>356.9844970703125</v>
       </c>
       <c r="F28">
-        <v>53.2400016784668</v>
+        <v>372.5276113081854</v>
       </c>
       <c r="G28">
-        <v>43.54000091552734</v>
+        <v>304.5323901793723</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>131684530</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>51092106388</v>
@@ -4147,22 +4084,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>98.06110899770088</v>
+        <v>413.9468028038758</v>
       </c>
       <c r="E29">
-        <v>84.43734741210938</v>
+        <v>373.7464904785156</v>
       </c>
       <c r="F29">
-        <v>98.06110899770088</v>
+        <v>438.8907409366319</v>
       </c>
       <c r="G29">
-        <v>80.56356001156674</v>
+        <v>330.3106026459549</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>131684530</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>65214209388</v>
@@ -4275,22 +4212,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>564.8420934999623</v>
+        <v>355.4345476774882</v>
       </c>
       <c r="E30">
-        <v>567.5840454101562</v>
+        <v>307.3565368652344</v>
       </c>
       <c r="F30">
-        <v>568.4980293802209</v>
+        <v>356.2528322872818</v>
       </c>
       <c r="G30">
-        <v>487.1534560444658</v>
+        <v>300.3768500140412</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>131684530</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>55170858459</v>
@@ -4403,22 +4340,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>990.9535599144536</v>
+        <v>299.0902904681363</v>
       </c>
       <c r="E31">
-        <v>932.830322265625</v>
+        <v>370.4724426269531</v>
       </c>
       <c r="F31">
-        <v>1065.275076908038</v>
+        <v>374.9736756167053</v>
       </c>
       <c r="G31">
-        <v>932.830322265625</v>
+        <v>273.1937050611585</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>131684530</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>47617919435</v>
@@ -4531,22 +4468,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>3829.951036061672</v>
+        <v>296.7928520147809</v>
       </c>
       <c r="E32">
-        <v>3718.19677734375</v>
+        <v>306.7379760742188</v>
       </c>
       <c r="F32">
-        <v>4026.941593801738</v>
+        <v>324.6120440454347</v>
       </c>
       <c r="G32">
-        <v>3570.453859038701</v>
+        <v>242.5212125682272</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>131684530</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>42914076731</v>
@@ -4659,22 +4596,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>373.49191110807</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>381.7398681640625</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>417.7078983151368</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>362.3844042330587</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>131684530</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>53432060829</v>
@@ -4787,22 +4724,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>4646.163088703966</v>
+        <v>387.5981719239294</v>
       </c>
       <c r="E34">
-        <v>4397.0390625</v>
+        <v>377.1768798828125</v>
       </c>
       <c r="F34">
-        <v>4647.12125803552</v>
+        <v>391.7257196820494</v>
       </c>
       <c r="G34">
-        <v>4224.568582820331</v>
+        <v>347.2595511126237</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>131684530</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>55276967396</v>
@@ -4915,22 +4852,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>299.8867087280755</v>
+        <v>474.8880208241581</v>
       </c>
       <c r="E35">
-        <v>279.6763610839844</v>
+        <v>503.1929321289063</v>
       </c>
       <c r="F35">
-        <v>311.3327623979251</v>
+        <v>505.9539161164443</v>
       </c>
       <c r="G35">
-        <v>274.7053735580706</v>
+        <v>439.592536854644</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>131684530</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>66544211448</v>
@@ -5043,22 +4980,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1366.269412157012</v>
+        <v>450.7142458886467</v>
       </c>
       <c r="E36">
-        <v>1400.426147460938</v>
+        <v>461.1206359863281</v>
       </c>
       <c r="F36">
-        <v>1722.475366040805</v>
+        <v>497.6607896764617</v>
       </c>
       <c r="G36">
-        <v>1356.510344927319</v>
+        <v>440.1213238677309</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>131684530</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>62708029141</v>
@@ -5171,22 +5108,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>564.2889661613768</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>584.7947387695312</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>648.5272193608441</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>533.9682686077467</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>131684530</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>79017455291</v>
@@ -5299,22 +5236,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>690.63720549312</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>680.0704345703125</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>708.5740331181013</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>614.8348222060938</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>131684530</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>94470171579</v>
@@ -5427,22 +5364,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>813.8317657473086</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>813.713134765625</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>886.1304098347954</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>740.8608593165171</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>131684530</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>111011985999</v>
@@ -5555,22 +5492,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>31.23959479848472</v>
+        <v>771.0283893441335</v>
       </c>
       <c r="E40">
-        <v>28.76222801208496</v>
+        <v>659.861328125</v>
       </c>
       <c r="F40">
-        <v>31.50219696309808</v>
+        <v>825.0371529984118</v>
       </c>
       <c r="G40">
-        <v>28.63340577082776</v>
+        <v>648.3920676505629</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>131684530</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>104100081287</v>
@@ -5683,22 +5620,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2476.994723535176</v>
+        <v>630.3668796758534</v>
       </c>
       <c r="E41">
-        <v>2384.00341796875</v>
+        <v>733.2115478515625</v>
       </c>
       <c r="F41">
-        <v>2758.415779854624</v>
+        <v>781.7685534175789</v>
       </c>
       <c r="G41">
-        <v>2325.761495008725</v>
+        <v>627.5859636989279</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>131684530</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>84284711313</v>
@@ -5811,22 +5748,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>3590.70430246099</v>
+        <v>670.9212736039041</v>
       </c>
       <c r="E42">
-        <v>3714.694091796875</v>
+        <v>699.480224609375</v>
       </c>
       <c r="F42">
-        <v>3714.694091796875</v>
+        <v>718.5427747123849</v>
       </c>
       <c r="G42">
-        <v>3048.748932944461</v>
+        <v>548.8116279554603</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>131684530</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>90336409931</v>
@@ -5939,22 +5876,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>2937</v>
+        <v>886.8499819857421</v>
       </c>
       <c r="E43">
-        <v>3025</v>
+        <v>877.1211547851562</v>
       </c>
       <c r="F43">
-        <v>3125</v>
+        <v>943.8159729963244</v>
       </c>
       <c r="G43">
-        <v>2890</v>
+        <v>858.1324505132194</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>131684530</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>118453938508</v>
